--- a/EkonnK/evidence.xlsx
+++ b/EkonnK/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
   <si>
     <t>TxHash</t>
   </si>
@@ -73,24 +73,6 @@
     <t>nft id</t>
   </si>
   <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -137,13 +119,80 @@
   </si>
   <si>
     <t>uptick1ekldzepc6m5tgw8p68cmtpwjadu7n5m2erd4tm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C560BD65D1DF934CF8F531E56B761EC099A3843610FA3F4C7AD21BFB9A446F83
+</t>
+  </si>
+  <si>
+    <t>eknnft</t>
+  </si>
+  <si>
+    <t>B18437988567B85CFE6F3A1D2F5D5E3A07E85A67811C2DB94CFB7A2343AC92EF</t>
+  </si>
+  <si>
+    <t>nft00001</t>
+  </si>
+  <si>
+    <t>nft00002</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>B120D412948B3CFF0D49BFE14F5C6615B7E3105BBEB8835802EAC5E81259F5A3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>juno1zuqnqp0ytffafdt43sa34j5mk0yg8zvccgpalfulwlh57pf0x4rqglacue</t>
+  </si>
+  <si>
+    <t>C90832490D1965C38C31549B8E679012CFEF8C443808B43572756B9315E826DC</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibc/F2EF0D84F058C881E07A2311AD0D863004623E554D59805AFB931CB19CE1FC02
+</t>
+  </si>
+  <si>
+    <t>3124DB3F81484BBC37925843D94FC4D85270FF9016E54E7F80677DD3E2522D02</t>
+  </si>
+  <si>
+    <t>5563956576FB21BA987431C2463F7E3C9506AF3C47655828AE6669EF4E7487E7</t>
+  </si>
+  <si>
+    <t>E011FA1A5AEC894F4F26FFC2527E506BE8212338540DD3579D8656C8CF9342B0</t>
+  </si>
+  <si>
+    <t>ibc/F2EF0D84F058C881E07A2311AD0D863004623E554D59805AFB931CB19CE1FC02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +205,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="4">
@@ -210,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -225,6 +281,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,8 +593,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -548,54 +611,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1042,7 +1105,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1058,11 +1123,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+      <c r="A2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1307,9 +1372,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1330,17 +1397,29 @@
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1351,7 +1430,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1376,16 +1457,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1400,7 +1481,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1425,16 +1508,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>38</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1449,7 +1532,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1474,16 +1559,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1498,7 +1583,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1524,16 +1611,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/EkonnK/evidence.xlsx
+++ b/EkonnK/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="87">
   <si>
     <t>TxHash</t>
   </si>
@@ -52,25 +52,10 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>ClassID</t>
   </si>
   <si>
     <t>NFTID</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
   </si>
   <si>
     <t>TeamName</t>
@@ -187,12 +172,167 @@
   <si>
     <t>ibc/F2EF0D84F058C881E07A2311AD0D863004623E554D59805AFB931CB19CE1FC02</t>
   </si>
+  <si>
+    <t xml:space="preserve">eknnft0011
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ibc/8ABD413901A61F00B81BAF8726A956EBE420D98CBD6EE36CC7EE398CF5770D2B</t>
+  </si>
+  <si>
+    <t>ibc/68BFFC96049034E8C13F08786FA44D0D99C7C1F9F9DEC5F01D7D89B88156CF91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eknnft0012
+</t>
+  </si>
+  <si>
+    <t>ibc/F7FE920844A0F70815F56B2C788843BDDEE8B17C5896C1A5CC63F3B124048953</t>
+  </si>
+  <si>
+    <t>eknnft0013</t>
+  </si>
+  <si>
+    <t>ibc/EA9A8BA20AE425546832EA7D5E00141F1642702CA10F30470475F4EE36BA3DA7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eknnft0014
+</t>
+  </si>
+  <si>
+    <t>ibc/B5791F0D1D79CA375192424AF456AE9EB4CEB8F141B5414C6DCA5D2E8A7C58F8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eknnft0015
+</t>
+  </si>
+  <si>
+    <t>ibc/55530B03A3E5FE979284A6D9BF0D1F7A041A5AB9570CF3D6F2844B23BD6D79E7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eknnft0016
+</t>
+  </si>
+  <si>
+    <t>E1F29B08C5FEA2CCF97A75E2162F9A1F504297AC57179FB5BADA136E251B72F3</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>55E5DC07A6BC07BBB5F463EE6CE5F03A3FFC3D868418B7D3198DDF8C87D6F7FD</t>
+  </si>
+  <si>
+    <t>94B3796FE9AECAD2675BC866652347E5BA6D1267B54D797402E30F0708AF9D1B</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>5C25B2BFF25C7437A91667AF9629A6CCECDE9A0E6CFC22F166DE584C63D96DCB</t>
+  </si>
+  <si>
+    <t>DF2370EED7C2C29AB047995F53C0C7B5400AE945F799AF80AE81762F7DE03669</t>
+  </si>
+  <si>
+    <t>AA37F25DB3C87A0FD7061C4ABE591D4D1249E2142FCE0ECBD832D59A61CD0EB0</t>
+  </si>
+  <si>
+    <t>C44A8DCE2BC4DD632439884C4AFBF1005A3D4F18297799578084EC3D3F875894</t>
+  </si>
+  <si>
+    <t>4BEE25EBD9A7740364473DAE5FD9E7AAE73E627061808BB5E03999D34CFC8EA4</t>
+  </si>
+  <si>
+    <t>8E3575694A9B2197309E8EE36AD9FA6C4DC36134B02C90E74285CF470E68E3E0</t>
+  </si>
+  <si>
+    <t>60A01882440EA850A12DE99F8360AC2407BBC7400ED58C8A94982A0D5979222F</t>
+  </si>
+  <si>
+    <t>CBC7060DF8744E001CA265AA78152A70C149A881426211D63C3C89A457FCD59E</t>
+  </si>
+  <si>
+    <t>8B1B8DAE8D5B844A02964F3E23C7F364530C26DEC6308B1A379A4E31BE5F6EC2</t>
+  </si>
+  <si>
+    <t>CCA1024382670CD582AF317C2274B070C17433F0BA1156481B18B7D22913A63C</t>
+  </si>
+  <si>
+    <t>1EB786C5210BC9E36C8FA9EA5039B507747BA2B1D713107D8C54521D8D7FA525</t>
+  </si>
+  <si>
+    <t>E4369BF2B44B6FC0367071DDB4851A29220FCDF7B723FB202E54D4F1992CB266</t>
+  </si>
+  <si>
+    <t>3220F12F934FF1133EFC82F837D3E41F4CE90377A7AEE6A0B57F9AC01F7434FB</t>
+  </si>
+  <si>
+    <t>52C47F29308556733A187253180803F33C17146185E639335E1AB907F909616E</t>
+  </si>
+  <si>
+    <t>FCC4C30917C4E38EE89B49370F5442F9701359B1111FF5AD82BB0B368BA1E504d</t>
+  </si>
+  <si>
+    <t>A7D0966B9A36DB6A167F9D5F94B881B81AE3D948814753C3F2A40ECC8B715C1C</t>
+  </si>
+  <si>
+    <t>DB3B1C84B16C68D00AC5F15A7CDAF7FB78CD351C463518421AEACE9DE7F6615C</t>
+  </si>
+  <si>
+    <t>376DCA6DD36F0E9B936CFD9A196B0B1A265389E5592824C9C2520F4E1365A277d</t>
+  </si>
+  <si>
+    <t>FAC4F6FE7000D88AB865D486D7A9B955A50303ED91D804BAA0F8A1FBAC344B47d</t>
+  </si>
+  <si>
+    <t>BA381EB9139489C657A80EFE5D97BC70919557B1AEB2502ABE8EA3F159E40D8B</t>
+  </si>
+  <si>
+    <t>1ED1E3CE990904DAD6D17A8957B65EC9E49DC9796288C4261A5A7374C6B0B8C2</t>
+  </si>
+  <si>
+    <t>FD939A34770BB2A69AF29FEE8FDD43041E629FE71835E78CB22E68AFE5FDA8DA</t>
+  </si>
+  <si>
+    <t>56EE8B285143FC475B0529693CCCC3B3D641D1152628AB15F6EE719C6452BE58</t>
+  </si>
+  <si>
+    <t>4CF07034341E34D4A24BB073809485E7B28AC3AA607EB01BB47E7D442DE49D3D</t>
+  </si>
+  <si>
+    <t>DC649EA69E28210A630CC34121283B4085DD5E894F88CFA458D5178BA01EFD23</t>
+  </si>
+  <si>
+    <t>ADA5134230ED2DBE952626BD82281300C03B6D5EA08BFA29EA3D379EFDF1BE15</t>
+  </si>
+  <si>
+    <t>0923B48C26E40639DBF26095DE12B0AAD1B9BE22CE0CBA7935D551EF803219E5</t>
+  </si>
+  <si>
+    <t>C63CC505ABBD371720CFCAB7FD4D4ED8B4027397FB8A2B52239841635C193959</t>
+  </si>
+  <si>
+    <t>822E4B8B1753D2D89A52EB24A92964E66AC43322B92EA51786DC975E6C9F1909</t>
+  </si>
+  <si>
+    <t>19A2C62F4D0BC6C8D2E18C78FFD7178F72418F5FE21AC054520A8367E5262D0C</t>
+  </si>
+  <si>
+    <t>DBEF34F101FEA4FEA2440A49983DB4FEB1B008E504B457FAF35FED5C03820F3A</t>
+  </si>
+  <si>
+    <t>FDF294AA94E531934483D3975BEDFD516F88B986B4F7237450316ED85E7D2FF1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +349,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="162"/>
@@ -266,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -288,6 +435,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,54 +767,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -673,7 +829,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -683,18 +841,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -703,402 +861,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1111,6 +873,485 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
     <col min="1" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1119,15 +1360,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1140,9 +1381,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1160,23 +1403,51 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1188,9 +1459,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1208,23 +1481,51 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1389,32 +1690,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1446,10 +1747,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1457,16 +1758,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1497,10 +1798,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1508,16 +1809,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1548,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1559,17 +1860,17 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1583,7 +1884,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1600,10 +1901,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1611,17 +1912,17 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1635,7 +1936,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1645,18 +1948,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1671,7 +1974,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1681,18 +1986,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>39</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/EkonnK/evidence.xlsx
+++ b/EkonnK/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" activeTab="20"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" firstSheet="2" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -32,21 +32,16 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="95">
   <si>
     <t>TxHash</t>
-  </si>
-  <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
   </si>
   <si>
     <t>ChainID</t>
@@ -326,6 +321,36 @@
   </si>
   <si>
     <t>FDF294AA94E531934483D3975BEDFD516F88B986B4F7237450316ED85E7D2FF1</t>
+  </si>
+  <si>
+    <t>B4B89A306D26A21485305D35DE2B9BC48E808D01C6305AA9C7822C733990D871</t>
+  </si>
+  <si>
+    <t>CCB4CC6CB2FD8A7A8AD4A52AA8972DA16ABA5AA0C1D971CD88E81FDB80AFAE62</t>
+  </si>
+  <si>
+    <t>0E4EA718D7309B033F9CDC54E054FC224FA3FED7AD6F96B5A24D5EC72698DE0E</t>
+  </si>
+  <si>
+    <t>2A473C9B8193CB05A6EA9AB1AE3709AF9286DD2E471D0994381E258DD917536B</t>
+  </si>
+  <si>
+    <t>ECADB2F3504A8B4C8983D0F66E3B94C2AD623CFCF4529CFD6517C6E5BD2A3424</t>
+  </si>
+  <si>
+    <t>BF988C15868F66319EC564A797AE7650E55C95E09DB1032FA570EEBA8BBC5C13</t>
+  </si>
+  <si>
+    <t>C70036AD3AA481641B9831886A4732E389FAF9112D288F73E55415DEAF849B3D</t>
+  </si>
+  <si>
+    <t>F92C0AAB2E7339C01D4D9C3671B87D90298880D6537170FA57C1270B3EF79A02</t>
+  </si>
+  <si>
+    <t>04B07E093B9D9F9236EE96908CA3DD8D57CAC77270775340A6797F65638A6474</t>
+  </si>
+  <si>
+    <t>24AB8981027A66C25399B7754CCF9E908AF20B269D386E135BB82D3C1C22E59E</t>
   </si>
 </sst>
 </file>
@@ -413,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -445,6 +470,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -767,54 +793,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -841,18 +867,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -879,10 +905,48 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
@@ -898,7 +962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -906,7 +970,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -917,10 +981,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
@@ -936,15 +1000,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -955,34 +1019,51 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -996,40 +1077,47 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="B5" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1051,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
@@ -1059,39 +1147,101 @@
         <v>57</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1113,47 +1263,47 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>50</v>
+        <v>65</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>60</v>
+      <c r="A3" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1161,7 +1311,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1175,55 +1325,92 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1237,55 +1424,71 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1299,266 +1502,91 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1573,7 +1601,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1587,12 +1617,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1607,7 +1637,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1621,12 +1653,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1655,16 +1687,47 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1690,32 +1753,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1747,27 +1810,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1798,27 +1861,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1849,27 +1912,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1901,27 +1964,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1948,18 +2011,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1986,18 +2049,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
